--- a/biology/Botanique/Isolona/Isolona.xlsx
+++ b/biology/Botanique/Isolona/Isolona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolona Engl. est un genre de plantes de la famille des Annonaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (14 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 janvier 2018) :
 Isolona campanulata Engl. &amp; Diels
 Isolona capuronii Cavaco &amp; Keraudren
 Isolona cauliflora Verdc.
@@ -534,9 +548,9 @@
 Isolona pleurocarpa Diels
 Isolona thonneri (De Wild. &amp; T. Durand) Engl. &amp; Diels
 Isolona zenkeri Engl.
-Selon GRIN            (14 janvier 2018)[3] :
+Selon GRIN            (14 janvier 2018) :
 Isolona campanulata Engl. &amp; Diels
-Selon NCBI  (14 janvier 2018)[4] :
+Selon NCBI  (14 janvier 2018) :
 Isolona campanulata
 Isolona capuronii
 Isolona cauliflora
@@ -552,7 +566,7 @@
 Isolona pleurocarpa
 Isolona thonneri
 Isolona zenkeri
-Selon The Plant List            (14 janvier 2018)[5] :
+Selon The Plant List            (14 janvier 2018) :
 Isolona campanulata Engl. &amp; Diels
 Isolona congolana (De Wild. &amp; T.Durand) Engl. &amp; Diels
 Isolona cooperi Hutch. &amp; Dalziel ex G.P.Cooper &amp; Record
@@ -567,7 +581,7 @@
 Isolona soubreana A.Chev. ex Hutch.
 Isolona thonneri (De Wild. &amp; T.Durand) Engl. &amp; Diels
 Isolona zenkeri (Engl.) Dyer
-Selon Tropicos                                           (14 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Isolona brunelii De Wild.
 Isolona campanulata Engl. &amp; Diels
 Isolona capuronii Cavaco &amp; Keraudren
